--- a/4.project.107/metadata.xlsx
+++ b/4.project.107/metadata.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/camilavargas/padl/template-repo/4.project.XX/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/camilavargas/padl/alex-w-data/4.project.107/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E96BF3C-ADBD-9D48-84E4-974ACDAF4074}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27CE6672-E99D-7340-AC20-C63EF2332EB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-31120" yWindow="-20" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DataSet" sheetId="1" r:id="rId1"/>
@@ -474,7 +474,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2137" uniqueCount="1176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2167" uniqueCount="1187">
   <si>
     <t>csv_E</t>
   </si>
@@ -3560,18 +3560,9 @@
     <t>palmyra_project</t>
   </si>
   <si>
-    <t>edi.1045</t>
-  </si>
-  <si>
-    <t>Palmyra Atoll soil and/or wood density sampling locations used in the carbon storage analysis</t>
-  </si>
-  <si>
     <t>aweg</t>
   </si>
   <si>
-    <t>completed</t>
-  </si>
-  <si>
     <t>amiller</t>
   </si>
   <si>
@@ -3608,9 +3599,6 @@
     <t>Vargas Poulsen</t>
   </si>
   <si>
-    <t>PADL Data Manager, Univerity of California Santa Barbara</t>
-  </si>
-  <si>
     <t>camilavargas@ucsb.edu</t>
   </si>
   <si>
@@ -3689,231 +3677,42 @@
     <t>0000- 0001- 6975-0852</t>
   </si>
   <si>
-    <t>NSF DEB #1457371</t>
-  </si>
-  <si>
-    <t>otherEntity</t>
-  </si>
-  <si>
     <t>dataTable</t>
   </si>
   <si>
-    <t>Shapefiles with geospatil data</t>
-  </si>
-  <si>
-    <t>Palmyra Atoll Soil and Wood Sample attributes  2016 and 2019</t>
-  </si>
-  <si>
-    <t>zip file with all necessary files to read in the location of the sampling for this project</t>
-  </si>
-  <si>
-    <t>Additional information of trees and soil samples</t>
-  </si>
-  <si>
-    <t>This describes the vegetation community type at the sampling location. Homo refers to homogeneous (single-species) community types, while Hetero refers to heterogeneous community types.</t>
-  </si>
-  <si>
     <t>categorical</t>
   </si>
   <si>
-    <t>This refers to whether the islet from which the sample was extracted is man-made or natural. Whether the islet is man-made or natural can affect sediment properties.</t>
-  </si>
-  <si>
-    <t>Latitudinal location of the sample</t>
-  </si>
-  <si>
     <t>numeric</t>
   </si>
   <si>
-    <t>Longitudinal location of the sample</t>
-  </si>
-  <si>
-    <t>The individual islet at Palmyra from where the sample was extracted</t>
-  </si>
-  <si>
     <t>character</t>
   </si>
   <si>
-    <t>A unique identifying code assigned to each sampling location</t>
-  </si>
-  <si>
-    <t>Dry bulk density of the soil sample, measured by dividing the dried weight of the soil sample by the volume of the soil extracted at the sampling location</t>
-  </si>
-  <si>
-    <t>The percentage of organic carbon measured or calculated from each soil sample</t>
-  </si>
-  <si>
-    <t>Observed woody vegetation species closest to soil sampling location OR wood species sampled</t>
-  </si>
-  <si>
-    <t>Type of tree at the location of the sample according to remote sensing data (Struckhoff 2019)</t>
-  </si>
-  <si>
-    <t>Woody vegetation community type at the location of the sample according to remote sensing data (Struckhoff 2019)</t>
-  </si>
-  <si>
-    <t>The year in which the sample was extracted</t>
-  </si>
-  <si>
     <t>YYYY</t>
   </si>
   <si>
-    <t>Based on the soil organic carbon content, the bin that each sample was assigned to for modelling purposes. High &gt;20%; Medium 10 – 20%; Low &lt;10%</t>
-  </si>
-  <si>
-    <t>Mean dry bulk density values for each bin category</t>
-  </si>
-  <si>
-    <t>Denotes which types of samples were extracted at each location</t>
-  </si>
-  <si>
     <t>gramsPerCubicMeter</t>
   </si>
   <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>grain</t>
-  </si>
-  <si>
-    <t>origin</t>
-  </si>
-  <si>
-    <t>lat</t>
-  </si>
-  <si>
-    <t>long</t>
-  </si>
-  <si>
-    <t>island</t>
-  </si>
-  <si>
-    <t>dbd</t>
-  </si>
-  <si>
-    <t>org_c_per</t>
-  </si>
-  <si>
     <t>species</t>
   </si>
   <si>
-    <t>crown_ras</t>
-  </si>
-  <si>
-    <t>com_ras</t>
-  </si>
-  <si>
-    <t>sample_yr</t>
-  </si>
-  <si>
-    <t>org_c_bin</t>
-  </si>
-  <si>
-    <t>dbd_avg</t>
-  </si>
-  <si>
-    <t>sample_type</t>
-  </si>
-  <si>
-    <t>Lagoon</t>
-  </si>
-  <si>
-    <t>Leeward</t>
-  </si>
-  <si>
-    <t>Windward</t>
-  </si>
-  <si>
-    <t>High</t>
-  </si>
-  <si>
-    <t>Low</t>
-  </si>
-  <si>
-    <t>Med</t>
-  </si>
-  <si>
-    <t>Man-made</t>
-  </si>
-  <si>
-    <t>Natural</t>
-  </si>
-  <si>
-    <t>Hetero</t>
-  </si>
-  <si>
-    <t>Homo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Indicates that the sample was taken on the leeward side of the island (i.e. no prevailing wind). </t>
-  </si>
-  <si>
-    <t>Indicates that the sample was taken on the windward side of the island</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Samples extracted closer to the interior of the atoll where the prevailing wind patterns are less likely to affect grain size. </t>
-  </si>
-  <si>
-    <t>This refers to the grain or sediment found at each sampling location, as prevailing winds can affect sediment size and other soil properties.</t>
-  </si>
-  <si>
-    <t>&gt;20% of soil organic carbon</t>
-  </si>
-  <si>
-    <t>10 – 20% of soil organic carbon</t>
-  </si>
-  <si>
-    <t>&lt; 10% of soil organic carbon</t>
-  </si>
-  <si>
-    <t>Sample extracted of a man-made islet</t>
-  </si>
-  <si>
-    <t>Sample extracted of a natural islet</t>
-  </si>
-  <si>
-    <t>homogeneous (single-species) community types</t>
-  </si>
-  <si>
-    <t>heterogeneous community types</t>
-  </si>
-  <si>
     <t>Palmyra Atoll</t>
   </si>
   <si>
-    <t>Wood Samples</t>
-  </si>
-  <si>
-    <t>Soil Samples</t>
-  </si>
-  <si>
-    <t>Carbon</t>
-  </si>
-  <si>
     <t>creator</t>
   </si>
   <si>
     <t>contact</t>
   </si>
   <si>
-    <t>associated party</t>
-  </si>
-  <si>
     <t>g/m^3</t>
   </si>
   <si>
-    <t>soil_wood_samples_loc_info_2016_2019.csv</t>
-  </si>
-  <si>
-    <t>soil_wood_samples_location_palmyra_2016_2019.zip</t>
-  </si>
-  <si>
     <t>Date</t>
   </si>
   <si>
-    <t>PI</t>
-  </si>
-  <si>
     <t>projectTitle</t>
   </si>
   <si>
@@ -3923,12 +3722,6 @@
     <t>fundingNumber</t>
   </si>
   <si>
-    <t xml:space="preserve">National Science Foundation </t>
-  </si>
-  <si>
-    <t>Wildlife Conservation Society Climate Adaptation Fund</t>
-  </si>
-  <si>
     <t>asguerra</t>
   </si>
   <si>
@@ -4002,6 +3795,248 @@
   </si>
   <si>
     <t>University of Michigan</t>
+  </si>
+  <si>
+    <t>edi.1027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Native tree growth and reproduction in response to reduction in the coconut palm (Cocos nucifera) canopy at Palmyra Atoll
+</t>
+  </si>
+  <si>
+    <t>complete</t>
+  </si>
+  <si>
+    <t>Palmyra Atoll Cocos nucifera Open Solar Path impact study</t>
+  </si>
+  <si>
+    <t>awegmann_palmyra_atoll_osp_2004_2008.csv</t>
+  </si>
+  <si>
+    <t>Scientific name of sampled species</t>
+  </si>
+  <si>
+    <t>tree</t>
+  </si>
+  <si>
+    <t>Tree identifier composed by first letter of scientific name and number of surveyed tree</t>
+  </si>
+  <si>
+    <t>treatment</t>
+  </si>
+  <si>
+    <t>Value of open solar path (OSP)</t>
+  </si>
+  <si>
+    <t>treatment_code</t>
+  </si>
+  <si>
+    <t>Code referring to each type of treatment</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>Date sample was measured</t>
+  </si>
+  <si>
+    <t>YYYY-MM-DD</t>
+  </si>
+  <si>
+    <t>days_since_last_sample</t>
+  </si>
+  <si>
+    <t>Number of days since the tree was sampled last</t>
+  </si>
+  <si>
+    <t>total_days</t>
+  </si>
+  <si>
+    <t>Elapsed days since beginning of study</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>Year when measurement happened</t>
+  </si>
+  <si>
+    <t>fruit_code</t>
+  </si>
+  <si>
+    <t>Code that identifies number of fruits on a tree</t>
+  </si>
+  <si>
+    <t>flower_code</t>
+  </si>
+  <si>
+    <t>Code that identifies number of flower clusters on a tree</t>
+  </si>
+  <si>
+    <t>phenology</t>
+  </si>
+  <si>
+    <t>Either if the tree has fruits, flowers, both or none</t>
+  </si>
+  <si>
+    <t>av_dbh</t>
+  </si>
+  <si>
+    <t>Average diameter at breast height</t>
+  </si>
+  <si>
+    <t>change_av_dbh</t>
+  </si>
+  <si>
+    <t>Difference in average diameter at breast height between current measurement and previous measurement</t>
+  </si>
+  <si>
+    <t>max_dbh</t>
+  </si>
+  <si>
+    <t>Maximum diameter at breast height</t>
+  </si>
+  <si>
+    <t>change_max_dbh</t>
+  </si>
+  <si>
+    <t>Difference in maximum diameter at breast height between current measurement and previous measurement</t>
+  </si>
+  <si>
+    <t>height</t>
+  </si>
+  <si>
+    <t>Tree height</t>
+  </si>
+  <si>
+    <t>change_height</t>
+  </si>
+  <si>
+    <t>Difference in height between current measurement and previous measurement</t>
+  </si>
+  <si>
+    <t>light_gap_percent_2004</t>
+  </si>
+  <si>
+    <t>Measured percent open solar path at onset of study</t>
+  </si>
+  <si>
+    <t>light_gap_2005</t>
+  </si>
+  <si>
+    <t>Measured percent open solar path at 2005 sample</t>
+  </si>
+  <si>
+    <t>light_gap_change_percent</t>
+  </si>
+  <si>
+    <t>Measured percent change in open solar path between 2004 and 2008</t>
+  </si>
+  <si>
+    <t>seedlings</t>
+  </si>
+  <si>
+    <t>Number of same-species seedlings within 10m of tree base</t>
+  </si>
+  <si>
+    <t>change_seedlings</t>
+  </si>
+  <si>
+    <t>Difference in number of seedlings between current measurement and previous measurement</t>
+  </si>
+  <si>
+    <t>interger</t>
+  </si>
+  <si>
+    <t>OSP value between 51-100%</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>OSP value between 0-50%</t>
+  </si>
+  <si>
+    <t>Treatment A</t>
+  </si>
+  <si>
+    <t>Treatment B</t>
+  </si>
+  <si>
+    <t>No fruit on tree</t>
+  </si>
+  <si>
+    <t>1-10 fruits on tree</t>
+  </si>
+  <si>
+    <t>11-30 fruits on tree</t>
+  </si>
+  <si>
+    <t>31-90 fruits on tree</t>
+  </si>
+  <si>
+    <t>91+ fruits on tree</t>
+  </si>
+  <si>
+    <t>No flowers on tree</t>
+  </si>
+  <si>
+    <t>1-10 flowers or flower clusters on tree</t>
+  </si>
+  <si>
+    <t>11-30 flowers or flower clusters on tree</t>
+  </si>
+  <si>
+    <t>31-90 flowers or flower clusters on tree</t>
+  </si>
+  <si>
+    <t>91+ flowers or flower clusters on tree</t>
+  </si>
+  <si>
+    <t>No fruit or flowers on tree</t>
+  </si>
+  <si>
+    <t>Only flowers on tree</t>
+  </si>
+  <si>
+    <t>Fruit and flowers on tree</t>
+  </si>
+  <si>
+    <t>Above ground resource competition</t>
+  </si>
+  <si>
+    <t>Cocos nucifera</t>
+  </si>
+  <si>
+    <t>Tree</t>
+  </si>
+  <si>
+    <t>Reproduction</t>
+  </si>
+  <si>
+    <t>PADL Data Manager</t>
+  </si>
+  <si>
+    <t>Univerity of California Santa Barbara</t>
+  </si>
+  <si>
+    <t>ddrake</t>
+  </si>
+  <si>
+    <t>Don</t>
+  </si>
+  <si>
+    <t>Drake</t>
+  </si>
+  <si>
+    <t>University of Hawaii</t>
+  </si>
+  <si>
+    <t>ddrake@hawaii.edu</t>
+  </si>
+  <si>
+    <t>https://orcid.org/
+0000-0002-9002-2881</t>
   </si>
 </sst>
 </file>
@@ -4012,7 +4047,7 @@
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="165" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -4055,17 +4090,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8"/>
-      <color indexed="8"/>
-      <name val="DejaVu Sans"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Cambria"/>
-      <family val="1"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Docs-Calibri"/>
@@ -4090,13 +4114,37 @@
       <name val="Times"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor theme="0"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -4112,7 +4160,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -4124,14 +4172,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -4415,8 +4471,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -4466,28 +4522,28 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B2" t="s">
-        <v>1028</v>
+        <v>1107</v>
       </c>
       <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>1029</v>
-      </c>
-      <c r="E2">
-        <v>2016</v>
-      </c>
-      <c r="F2">
-        <v>2019</v>
-      </c>
-      <c r="G2" s="11">
-        <v>44566</v>
+        <v>3</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>1108</v>
+      </c>
+      <c r="E2" s="17">
+        <v>38203</v>
+      </c>
+      <c r="F2" s="17">
+        <v>39545</v>
+      </c>
+      <c r="G2" s="17">
+        <v>44516</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>1031</v>
+        <v>1109</v>
       </c>
       <c r="I2" t="s">
         <v>1000</v>
@@ -5838,10 +5894,10 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>1097</v>
+        <v>1072</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1097</v>
+        <v>1072</v>
       </c>
       <c r="C2" s="1" t="b">
         <v>1</v>
@@ -5850,7 +5906,7 @@
         <v>438</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>1141</v>
+        <v>1077</v>
       </c>
       <c r="F2" s="1">
         <v>1E-3</v>
@@ -5859,7 +5915,7 @@
         <v>368</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>1097</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -12560,9 +12616,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView topLeftCell="E1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
@@ -12606,74 +12662,52 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1072</v>
-      </c>
-      <c r="D2" t="s">
-        <v>1074</v>
-      </c>
-      <c r="E2" t="s">
-        <v>1076</v>
-      </c>
-      <c r="F2" s="1"/>
+        <v>1067</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>1110</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>1108</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="G2" s="4"/>
       <c r="H2" s="8" t="s">
-        <v>1143</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3">
-        <v>110</v>
-      </c>
-      <c r="B3" s="1">
-        <v>2</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>1073</v>
-      </c>
-      <c r="D3" t="s">
-        <v>1075</v>
-      </c>
-      <c r="E3" t="s">
-        <v>1077</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>0</v>
-      </c>
       <c r="G3" s="4"/>
-      <c r="H3" s="8" t="s">
-        <v>1142</v>
-      </c>
     </row>
     <row r="4" spans="1:8">
       <c r="G4" s="4"/>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" s="1" customFormat="1">
       <c r="G5" s="4"/>
     </row>
-    <row r="6" spans="1:8" s="1" customFormat="1">
+    <row r="6" spans="1:8">
+      <c r="F6" s="10"/>
       <c r="G6" s="4"/>
+      <c r="H6" s="7"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="F7" s="10"/>
       <c r="G7" s="4"/>
       <c r="H7" s="7"/>
     </row>
-    <row r="8" spans="1:8">
-      <c r="G8" s="4"/>
-      <c r="H8" s="7"/>
-    </row>
   </sheetData>
   <dataValidations count="2">
+    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="need a matching file type" sqref="F1" xr:uid="{4380E1FC-047D-F54D-93BE-FA4ACEBAE2DB}"/>
     <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="wrong input" error="wrong input" promptTitle="select value:" prompt="otherEntity (non-tabular data) or dataTable (csv or txt)" sqref="C1:C1048576" xr:uid="{20A1A553-66EC-0747-AE5C-A86CFC1D0590}">
       <formula1>"otherEntity, dataTable"</formula1>
     </dataValidation>
-    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="need a matching file type" sqref="F1" xr:uid="{4380E1FC-047D-F54D-93BE-FA4ACEBAE2DB}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -12684,7 +12718,7 @@
           <x14:formula1>
             <xm:f>ListFileType!$A$2:$A$86</xm:f>
           </x14:formula1>
-          <xm:sqref>F2:F6 F8:F1048576</xm:sqref>
+          <xm:sqref>F7:F1048576 F2:F5</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" errorStyle="warning" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" errorTitle="datasetid doesn't match" promptTitle="Match id in DataSet Sheet" xr:uid="{B9F16F1E-E81A-2B40-AE2F-5B37AF6BEB61}">
           <x14:formula1>
@@ -12700,11 +12734,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F18" sqref="F18"/>
+      <selection pane="bottomLeft" activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -12753,332 +12787,539 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
-      <c r="A2">
-        <v>110</v>
-      </c>
-      <c r="B2">
-        <v>2</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>1098</v>
-      </c>
-      <c r="D2" t="s">
+    <row r="2" spans="1:11" ht="16">
+      <c r="A2" s="18">
+        <v>107</v>
+      </c>
+      <c r="B2" s="18">
+        <v>1</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>1073</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>1112</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>1070</v>
+      </c>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+    </row>
+    <row r="3" spans="1:11" ht="32">
+      <c r="A3" s="18">
+        <v>107</v>
+      </c>
+      <c r="B3" s="18">
+        <v>1</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>1113</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>1114</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>1070</v>
+      </c>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+    </row>
+    <row r="4" spans="1:11" ht="16">
+      <c r="A4" s="18">
+        <v>107</v>
+      </c>
+      <c r="B4" s="18">
+        <v>1</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>1115</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>1116</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>1068</v>
+      </c>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+    </row>
+    <row r="5" spans="1:11" ht="16">
+      <c r="A5" s="18">
+        <v>107</v>
+      </c>
+      <c r="B5" s="18">
+        <v>1</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>1117</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>1118</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>1068</v>
+      </c>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="18"/>
+    </row>
+    <row r="6" spans="1:11" ht="16">
+      <c r="A6" s="18">
+        <v>107</v>
+      </c>
+      <c r="B6" s="18">
+        <v>1</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>1119</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>1120</v>
+      </c>
+      <c r="E6" s="18" t="s">
         <v>1078</v>
       </c>
-      <c r="E2" t="s">
-        <v>1079</v>
-      </c>
-      <c r="F2"/>
-      <c r="G2"/>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3">
-        <v>110</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>1099</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="F6" s="18" t="s">
+        <v>1121</v>
+      </c>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
+    </row>
+    <row r="7" spans="1:11" ht="16">
+      <c r="A7" s="18">
+        <v>107</v>
+      </c>
+      <c r="B7" s="18">
+        <v>1</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>1122</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>1123</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>1069</v>
+      </c>
+      <c r="G7" s="18" t="s">
+        <v>1156</v>
+      </c>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
+    </row>
+    <row r="8" spans="1:11" ht="16">
+      <c r="A8" s="18">
+        <v>107</v>
+      </c>
+      <c r="B8" s="18">
+        <v>1</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>1124</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>1125</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>1069</v>
+      </c>
+      <c r="G8" s="18" t="s">
+        <v>1156</v>
+      </c>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
+    </row>
+    <row r="9" spans="1:11" ht="16">
+      <c r="A9" s="18">
+        <v>107</v>
+      </c>
+      <c r="B9" s="18">
+        <v>1</v>
+      </c>
+      <c r="C9" s="18" t="s">
         <v>1126</v>
       </c>
-      <c r="E3" t="s">
-        <v>1079</v>
-      </c>
-      <c r="F3"/>
-      <c r="G3"/>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4">
-        <v>110</v>
-      </c>
-      <c r="B4" s="1">
-        <v>2</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>1100</v>
-      </c>
-      <c r="D4" t="s">
-        <v>1080</v>
-      </c>
-      <c r="E4" t="s">
-        <v>1079</v>
-      </c>
-      <c r="F4"/>
-      <c r="G4"/>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5">
-        <v>110</v>
-      </c>
-      <c r="B5" s="1">
-        <v>2</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>1101</v>
-      </c>
-      <c r="D5" t="s">
-        <v>1081</v>
-      </c>
-      <c r="E5" t="s">
-        <v>1082</v>
-      </c>
-      <c r="F5"/>
-      <c r="G5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6">
-        <v>110</v>
-      </c>
-      <c r="B6" s="1">
-        <v>2</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>1102</v>
-      </c>
-      <c r="D6" t="s">
-        <v>1083</v>
-      </c>
-      <c r="E6" t="s">
-        <v>1082</v>
-      </c>
-      <c r="F6"/>
-      <c r="G6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7">
-        <v>110</v>
-      </c>
-      <c r="B7" s="1">
-        <v>2</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>1103</v>
-      </c>
-      <c r="D7" t="s">
-        <v>1084</v>
-      </c>
-      <c r="E7" t="s">
-        <v>1085</v>
-      </c>
-      <c r="F7"/>
-      <c r="G7"/>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8">
-        <v>110</v>
-      </c>
-      <c r="B8" s="1">
-        <v>2</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="D8" t="s">
-        <v>1086</v>
-      </c>
-      <c r="E8" t="s">
-        <v>1085</v>
-      </c>
-      <c r="F8"/>
-      <c r="G8"/>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9">
-        <v>110</v>
-      </c>
-      <c r="B9" s="1">
-        <v>2</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>1104</v>
-      </c>
-      <c r="D9" t="s">
-        <v>1087</v>
-      </c>
-      <c r="E9" t="s">
-        <v>1082</v>
-      </c>
-      <c r="F9"/>
-      <c r="G9" t="s">
-        <v>1097</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10">
-        <v>110</v>
-      </c>
-      <c r="B10" s="1">
-        <v>2</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>1105</v>
-      </c>
-      <c r="D10" t="s">
-        <v>1088</v>
-      </c>
-      <c r="E10" t="s">
-        <v>1082</v>
-      </c>
-      <c r="F10"/>
-      <c r="G10" t="s">
+      <c r="D9" s="19" t="s">
+        <v>1127</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>1078</v>
+      </c>
+      <c r="F9" s="18" t="s">
+        <v>1071</v>
+      </c>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+    </row>
+    <row r="10" spans="1:11" ht="16">
+      <c r="A10" s="18">
+        <v>107</v>
+      </c>
+      <c r="B10" s="18">
+        <v>1</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>1128</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>1129</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>1068</v>
+      </c>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
+    </row>
+    <row r="11" spans="1:11" ht="16">
+      <c r="A11" s="18">
+        <v>107</v>
+      </c>
+      <c r="B11" s="18">
+        <v>1</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>1130</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>1131</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>1068</v>
+      </c>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
+    </row>
+    <row r="12" spans="1:11" ht="16">
+      <c r="A12" s="18">
+        <v>107</v>
+      </c>
+      <c r="B12" s="18">
+        <v>1</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>1132</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>1133</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>1068</v>
+      </c>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="18"/>
+    </row>
+    <row r="13" spans="1:11" ht="16">
+      <c r="A13" s="18">
+        <v>107</v>
+      </c>
+      <c r="B13" s="18">
+        <v>1</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>1134</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>1135</v>
+      </c>
+      <c r="E13" s="18" t="s">
+        <v>1069</v>
+      </c>
+      <c r="G13" s="18" t="s">
+        <v>168</v>
+      </c>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="18"/>
+    </row>
+    <row r="14" spans="1:11" ht="32">
+      <c r="A14" s="18">
+        <v>107</v>
+      </c>
+      <c r="B14" s="18">
+        <v>1</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>1136</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>1137</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>1069</v>
+      </c>
+      <c r="G14" s="18" t="s">
+        <v>168</v>
+      </c>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18"/>
+    </row>
+    <row r="15" spans="1:11" ht="16">
+      <c r="A15" s="18">
+        <v>107</v>
+      </c>
+      <c r="B15" s="18">
+        <v>1</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>1138</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>1139</v>
+      </c>
+      <c r="E15" s="18" t="s">
+        <v>1069</v>
+      </c>
+      <c r="G15" s="18" t="s">
+        <v>168</v>
+      </c>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="18"/>
+    </row>
+    <row r="16" spans="1:11" ht="32">
+      <c r="A16" s="18">
+        <v>107</v>
+      </c>
+      <c r="B16" s="18">
+        <v>1</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>1140</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>1141</v>
+      </c>
+      <c r="E16" s="18" t="s">
+        <v>1069</v>
+      </c>
+      <c r="G16" s="18" t="s">
+        <v>168</v>
+      </c>
+      <c r="H16" s="18"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="18"/>
+    </row>
+    <row r="17" spans="1:11" ht="16">
+      <c r="A17" s="18">
+        <v>107</v>
+      </c>
+      <c r="B17" s="18">
+        <v>1</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>1142</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>1143</v>
+      </c>
+      <c r="E17" s="18" t="s">
+        <v>1069</v>
+      </c>
+      <c r="G17" s="18" t="s">
+        <v>255</v>
+      </c>
+      <c r="H17" s="18"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="18"/>
+      <c r="K17" s="18"/>
+    </row>
+    <row r="18" spans="1:11" ht="32">
+      <c r="A18" s="18">
+        <v>107</v>
+      </c>
+      <c r="B18" s="18">
+        <v>1</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>1144</v>
+      </c>
+      <c r="D18" s="19" t="s">
+        <v>1145</v>
+      </c>
+      <c r="E18" s="18" t="s">
+        <v>1069</v>
+      </c>
+      <c r="G18" s="18" t="s">
+        <v>255</v>
+      </c>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="18"/>
+      <c r="K18" s="18"/>
+    </row>
+    <row r="19" spans="1:11" ht="16">
+      <c r="A19" s="18">
+        <v>107</v>
+      </c>
+      <c r="B19" s="18">
+        <v>1</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>1146</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>1147</v>
+      </c>
+      <c r="E19" s="18" t="s">
+        <v>1069</v>
+      </c>
+      <c r="G19" s="18" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11">
-        <v>110</v>
-      </c>
-      <c r="B11" s="1">
-        <v>2</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>1106</v>
-      </c>
-      <c r="D11" t="s">
-        <v>1089</v>
-      </c>
-      <c r="E11" t="s">
-        <v>1085</v>
-      </c>
-      <c r="F11"/>
-      <c r="G11"/>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12">
-        <v>110</v>
-      </c>
-      <c r="B12" s="1">
-        <v>2</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>1107</v>
-      </c>
-      <c r="D12" t="s">
-        <v>1090</v>
-      </c>
-      <c r="E12" t="s">
-        <v>1085</v>
-      </c>
-      <c r="F12"/>
-      <c r="G12"/>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13">
-        <v>110</v>
-      </c>
-      <c r="B13" s="1">
-        <v>2</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>1108</v>
-      </c>
-      <c r="D13" t="s">
-        <v>1091</v>
-      </c>
-      <c r="E13" t="s">
-        <v>1085</v>
-      </c>
-      <c r="F13"/>
-      <c r="G13"/>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14">
-        <v>110</v>
-      </c>
-      <c r="B14" s="1">
-        <v>2</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>1109</v>
-      </c>
-      <c r="D14" t="s">
-        <v>1092</v>
-      </c>
-      <c r="E14" t="s">
-        <v>1144</v>
-      </c>
-      <c r="F14" t="s">
-        <v>1093</v>
-      </c>
-      <c r="G14"/>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="A15">
-        <v>110</v>
-      </c>
-      <c r="B15" s="1">
-        <v>2</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>1110</v>
-      </c>
-      <c r="D15" t="s">
-        <v>1094</v>
-      </c>
-      <c r="E15" t="s">
-        <v>1079</v>
-      </c>
-      <c r="F15"/>
-      <c r="G15"/>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="A16">
-        <v>110</v>
-      </c>
-      <c r="B16" s="1">
-        <v>2</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>1111</v>
-      </c>
-      <c r="D16" t="s">
-        <v>1095</v>
-      </c>
-      <c r="E16" t="s">
-        <v>1082</v>
-      </c>
-      <c r="F16"/>
-      <c r="G16" s="1" t="s">
-        <v>1097</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17">
-        <v>110</v>
-      </c>
-      <c r="B17" s="1">
-        <v>2</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>1112</v>
-      </c>
-      <c r="D17" t="s">
-        <v>1096</v>
-      </c>
-      <c r="E17" t="s">
-        <v>1085</v>
-      </c>
-      <c r="F17"/>
-      <c r="G17"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="18"/>
+    </row>
+    <row r="20" spans="1:11" ht="16">
+      <c r="A20" s="18">
+        <v>107</v>
+      </c>
+      <c r="B20" s="18">
+        <v>1</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>1148</v>
+      </c>
+      <c r="D20" s="19" t="s">
+        <v>1149</v>
+      </c>
+      <c r="E20" s="18" t="s">
+        <v>1069</v>
+      </c>
+      <c r="G20" s="20" t="s">
+        <v>327</v>
+      </c>
+      <c r="H20" s="18"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="18"/>
+      <c r="K20" s="18"/>
+    </row>
+    <row r="21" spans="1:11" ht="32">
+      <c r="A21" s="18">
+        <v>107</v>
+      </c>
+      <c r="B21" s="18">
+        <v>1</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>1150</v>
+      </c>
+      <c r="D21" s="19" t="s">
+        <v>1151</v>
+      </c>
+      <c r="E21" s="18" t="s">
+        <v>1069</v>
+      </c>
+      <c r="G21" s="18" t="s">
+        <v>327</v>
+      </c>
+      <c r="H21" s="18"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="18"/>
+      <c r="K21" s="18"/>
+    </row>
+    <row r="22" spans="1:11" ht="16">
+      <c r="A22" s="18">
+        <v>107</v>
+      </c>
+      <c r="B22" s="18">
+        <v>1</v>
+      </c>
+      <c r="C22" s="18" t="s">
+        <v>1152</v>
+      </c>
+      <c r="D22" s="19" t="s">
+        <v>1153</v>
+      </c>
+      <c r="E22" s="18" t="s">
+        <v>1069</v>
+      </c>
+      <c r="G22" s="18" t="s">
+        <v>1156</v>
+      </c>
+      <c r="H22" s="18"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="18"/>
+    </row>
+    <row r="23" spans="1:11" ht="32">
+      <c r="A23" s="18">
+        <v>107</v>
+      </c>
+      <c r="B23" s="18">
+        <v>1</v>
+      </c>
+      <c r="C23" s="18" t="s">
+        <v>1154</v>
+      </c>
+      <c r="D23" s="19" t="s">
+        <v>1155</v>
+      </c>
+      <c r="E23" s="18" t="s">
+        <v>1069</v>
+      </c>
+      <c r="G23" s="18" t="s">
+        <v>1156</v>
+      </c>
+      <c r="H23" s="18"/>
+      <c r="I23" s="18"/>
+      <c r="J23" s="18"/>
+      <c r="K23" s="18"/>
     </row>
   </sheetData>
-  <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E18:E1048576" xr:uid="{F3F90F79-D594-1941-9A3A-EF9F1861D001}">
+  <dataValidations count="5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E24:E1048576" xr:uid="{F3F90F79-D594-1941-9A3A-EF9F1861D001}">
       <formula1>"character,numeric,categorical,Date"</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="select from values" sqref="I2:I1048576" xr:uid="{EF3D2B7E-F801-F54D-B43E-424F59DC5B40}">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="select from values" sqref="I24:I1048576" xr:uid="{EF3D2B7E-F801-F54D-B43E-424F59DC5B40}">
       <formula1>"integer,natural,real,whole"</formula1>
     </dataValidation>
     <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="select from values" sqref="I1" xr:uid="{81676368-8811-8245-8667-EA33212D37D5}"/>
     <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="choose from unit dictionary" sqref="G1" xr:uid="{4998F1BF-B48A-CC43-8CD0-5517B80102AD}"/>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E2:E23" xr:uid="{242E907C-9C37-BF43-8520-20BB2B4AB9D8}">
+      <formula1>"character,numeric,categorical,Date"</formula1>
+    </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -13090,7 +13331,7 @@
           <x14:formula1>
             <xm:f>ListUnitDictionary!$A:$A</xm:f>
           </x14:formula1>
-          <xm:sqref>G18:G1048576</xm:sqref>
+          <xm:sqref>G24:G1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -13100,10 +13341,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="A2" sqref="A2:E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -13130,182 +13371,293 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="1">
-        <v>110</v>
-      </c>
-      <c r="B2" s="1">
+      <c r="A2" s="16">
+        <v>107</v>
+      </c>
+      <c r="B2" s="16">
+        <v>1</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>1115</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="16">
+        <v>107</v>
+      </c>
+      <c r="B3" s="16">
+        <v>1</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>1115</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>1158</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="16">
+        <v>107</v>
+      </c>
+      <c r="B4" s="16">
+        <v>1</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>1117</v>
+      </c>
+      <c r="D4" s="16">
+        <v>1</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="16">
+        <v>107</v>
+      </c>
+      <c r="B5" s="16">
+        <v>1</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>1117</v>
+      </c>
+      <c r="D5" s="16">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
-        <v>1099</v>
-      </c>
-      <c r="D2" t="s">
-        <v>1113</v>
-      </c>
-      <c r="E2" t="s">
-        <v>1125</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="1">
-        <v>110</v>
-      </c>
-      <c r="B3" s="1">
+      <c r="E5" s="16" t="s">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="16">
+        <v>107</v>
+      </c>
+      <c r="B6" s="16">
+        <v>1</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>1128</v>
+      </c>
+      <c r="D6" s="18">
+        <v>0</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="16">
+        <v>107</v>
+      </c>
+      <c r="B7" s="16">
+        <v>1</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>1128</v>
+      </c>
+      <c r="D7" s="16">
+        <v>1</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="16">
+        <v>107</v>
+      </c>
+      <c r="B8" s="16">
+        <v>1</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>1128</v>
+      </c>
+      <c r="D8" s="16">
         <v>2</v>
       </c>
-      <c r="C3" t="s">
-        <v>1099</v>
-      </c>
-      <c r="D3" t="s">
-        <v>1114</v>
-      </c>
-      <c r="E3" t="s">
-        <v>1123</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="1">
-        <v>110</v>
-      </c>
-      <c r="B4" s="1">
+      <c r="E8" s="16" t="s">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="16">
+        <v>107</v>
+      </c>
+      <c r="B9" s="16">
+        <v>1</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>1128</v>
+      </c>
+      <c r="D9" s="16">
+        <v>3</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="16">
+        <v>107</v>
+      </c>
+      <c r="B10" s="16">
+        <v>1</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>1128</v>
+      </c>
+      <c r="D10" s="16">
+        <v>4</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="16">
+        <v>107</v>
+      </c>
+      <c r="B11" s="16">
+        <v>1</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>1130</v>
+      </c>
+      <c r="D11" s="16">
+        <v>0</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="16">
+        <v>107</v>
+      </c>
+      <c r="B12" s="16">
+        <v>1</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>1130</v>
+      </c>
+      <c r="D12" s="16">
+        <v>1</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="16">
+        <v>107</v>
+      </c>
+      <c r="B13" s="16">
+        <v>1</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>1130</v>
+      </c>
+      <c r="D13" s="16">
         <v>2</v>
       </c>
-      <c r="C4" t="s">
-        <v>1099</v>
-      </c>
-      <c r="D4" t="s">
-        <v>1115</v>
-      </c>
-      <c r="E4" t="s">
-        <v>1124</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="1">
-        <v>110</v>
-      </c>
-      <c r="B5" s="1">
+      <c r="E13" s="16" t="s">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="16">
+        <v>107</v>
+      </c>
+      <c r="B14" s="16">
+        <v>1</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>1130</v>
+      </c>
+      <c r="D14" s="16">
+        <v>3</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="16">
+        <v>107</v>
+      </c>
+      <c r="B15" s="16">
+        <v>1</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>1130</v>
+      </c>
+      <c r="D15" s="16">
+        <v>4</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="16">
+        <v>107</v>
+      </c>
+      <c r="B16" s="16">
+        <v>1</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>1132</v>
+      </c>
+      <c r="D16" s="16">
+        <v>0</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="16">
+        <v>107</v>
+      </c>
+      <c r="B17" s="16">
+        <v>1</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>1132</v>
+      </c>
+      <c r="D17" s="16">
+        <v>1</v>
+      </c>
+      <c r="E17" s="16" t="s">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="16">
+        <v>107</v>
+      </c>
+      <c r="B18" s="16">
+        <v>1</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>1132</v>
+      </c>
+      <c r="D18" s="16">
         <v>2</v>
       </c>
-      <c r="C5" t="s">
-        <v>1110</v>
-      </c>
-      <c r="D5" t="s">
-        <v>1116</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>1127</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="1">
-        <v>110</v>
-      </c>
-      <c r="B6" s="1">
-        <v>2</v>
-      </c>
-      <c r="C6" t="s">
-        <v>1110</v>
-      </c>
-      <c r="D6" t="s">
-        <v>1117</v>
-      </c>
-      <c r="E6" t="s">
-        <v>1129</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="1">
-        <v>110</v>
-      </c>
-      <c r="B7" s="1">
-        <v>2</v>
-      </c>
-      <c r="C7" t="s">
-        <v>1110</v>
-      </c>
-      <c r="D7" t="s">
-        <v>1118</v>
-      </c>
-      <c r="E7" t="s">
-        <v>1128</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="1">
-        <v>110</v>
-      </c>
-      <c r="B8" s="1">
-        <v>2</v>
-      </c>
-      <c r="C8" t="s">
-        <v>1100</v>
-      </c>
-      <c r="D8" t="s">
-        <v>1119</v>
-      </c>
-      <c r="E8" t="s">
-        <v>1130</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="1">
-        <v>110</v>
-      </c>
-      <c r="B9" s="1">
-        <v>2</v>
-      </c>
-      <c r="C9" t="s">
-        <v>1100</v>
-      </c>
-      <c r="D9" t="s">
-        <v>1120</v>
-      </c>
-      <c r="E9" t="s">
-        <v>1131</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="1">
-        <v>110</v>
-      </c>
-      <c r="B10" s="1">
-        <v>2</v>
-      </c>
-      <c r="C10" t="s">
-        <v>1098</v>
-      </c>
-      <c r="D10" t="s">
-        <v>1121</v>
-      </c>
-      <c r="E10" t="s">
-        <v>1133</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="1">
-        <v>110</v>
-      </c>
-      <c r="B11" s="1">
-        <v>2</v>
-      </c>
-      <c r="C11" t="s">
-        <v>1098</v>
-      </c>
-      <c r="D11" t="s">
-        <v>1122</v>
-      </c>
-      <c r="E11" t="s">
-        <v>1132</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
+      <c r="E18" s="16" t="s">
+        <v>1174</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13315,10 +13667,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -13339,46 +13691,57 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2">
-        <v>110</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1134</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="A2" s="16">
+        <v>107</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C2" s="16" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3">
-        <v>110</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1135</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="A3" s="16">
+        <v>107</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C3" s="16" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4">
-        <v>110</v>
-      </c>
-      <c r="B4" t="s">
-        <v>1136</v>
-      </c>
-      <c r="C4" s="1" t="s">
+      <c r="A4" s="16">
+        <v>107</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>1176</v>
+      </c>
+      <c r="C4" s="16" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="1">
-        <v>110</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1137</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="A5" s="16">
+        <v>107</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>1177</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="16">
+        <v>107</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C6" s="16" t="s">
         <v>6</v>
       </c>
     </row>
@@ -13390,10 +13753,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F013127A-4C83-524F-8DF5-99BFEE8C0FCA}">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -13412,96 +13775,65 @@
         <v>1001</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>1146</v>
+        <v>1079</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1147</v>
+        <v>1080</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>1148</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>110</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>1138</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>1060</v>
+      <c r="A2" s="21">
+        <v>107</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>1028</v>
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="1">
-        <v>110</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>1138</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>1065</v>
+      <c r="A3" s="21">
+        <v>107</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>1075</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>1028</v>
       </c>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1">
-      <c r="A4" s="1">
-        <v>110</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>1139</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>1060</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="1">
-        <v>110</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>1145</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>1037</v>
-      </c>
-      <c r="E5" t="s">
-        <v>1149</v>
-      </c>
-      <c r="F5" t="s">
-        <v>1071</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="1">
-        <v>110</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>1140</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>1041</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="1">
-        <v>110</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>1145</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>1030</v>
-      </c>
-      <c r="E7" t="s">
-        <v>1150</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
+      <c r="A4" s="21">
+        <v>107</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>1075</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="1" customFormat="1">
+      <c r="A5" s="21">
+        <v>107</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>1179</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13514,7 +13846,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -13547,10 +13879,10 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B2" t="s">
-        <v>1134</v>
+        <v>1074</v>
       </c>
       <c r="C2" s="5">
         <v>5.8833299999999999</v>
@@ -13578,10 +13910,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:P16"/>
+  <dimension ref="A1:P17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -13643,17 +13975,17 @@
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="10" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C2" s="10"/>
+      <c r="D2" s="11" t="s">
+        <v>1031</v>
+      </c>
+      <c r="E2" s="10" t="s">
         <v>1032</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>1033</v>
-      </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="14" t="s">
-        <v>1034</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>1035</v>
       </c>
       <c r="F2" s="10"/>
       <c r="G2" s="10"/>
@@ -13662,8 +13994,8 @@
       <c r="J2" s="10"/>
       <c r="K2" s="10"/>
       <c r="L2" s="10"/>
-      <c r="M2" s="15" t="s">
-        <v>1036</v>
+      <c r="M2" s="12" t="s">
+        <v>1033</v>
       </c>
       <c r="N2" s="10"/>
       <c r="O2" s="10"/>
@@ -13671,17 +14003,17 @@
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="10" t="s">
-        <v>1037</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>1038</v>
+        <v>1034</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>1035</v>
       </c>
       <c r="C3" s="10"/>
-      <c r="D3" s="15" t="s">
-        <v>1039</v>
+      <c r="D3" s="12" t="s">
+        <v>1036</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>1035</v>
+        <v>1032</v>
       </c>
       <c r="F3" s="10"/>
       <c r="G3" s="10"/>
@@ -13690,26 +14022,26 @@
       <c r="J3" s="10"/>
       <c r="K3" s="10"/>
       <c r="L3" s="10"/>
-      <c r="M3" s="15" t="s">
-        <v>1040</v>
-      </c>
-      <c r="N3" s="15"/>
+      <c r="M3" s="12" t="s">
+        <v>1037</v>
+      </c>
+      <c r="N3" s="12"/>
       <c r="O3" s="10"/>
       <c r="P3" s="10"/>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="10" t="s">
-        <v>1041</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>1042</v>
+        <v>1038</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>1039</v>
       </c>
       <c r="C4" s="10"/>
-      <c r="D4" s="15" t="s">
-        <v>1043</v>
+      <c r="D4" s="12" t="s">
+        <v>1040</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>1044</v>
+        <v>1180</v>
       </c>
       <c r="F4" s="10"/>
       <c r="G4" s="10"/>
@@ -13719,7 +14051,7 @@
       <c r="K4" s="10"/>
       <c r="L4" s="10"/>
       <c r="M4" s="10" t="s">
-        <v>1045</v>
+        <v>1041</v>
       </c>
       <c r="N4" s="10"/>
       <c r="O4" s="10"/>
@@ -13727,17 +14059,17 @@
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="10" t="s">
-        <v>1046</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>1047</v>
+        <v>1042</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>1043</v>
       </c>
       <c r="C5" s="10"/>
-      <c r="D5" s="15" t="s">
-        <v>1048</v>
+      <c r="D5" s="12" t="s">
+        <v>1044</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>1049</v>
+        <v>1045</v>
       </c>
       <c r="F5" s="10"/>
       <c r="G5" s="10"/>
@@ -13753,27 +14085,27 @@
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="10" t="s">
-        <v>1050</v>
+        <v>1046</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>1051</v>
+        <v>1047</v>
       </c>
       <c r="C6" s="10"/>
       <c r="D6" s="10" t="s">
-        <v>1052</v>
-      </c>
-      <c r="E6" s="15" t="s">
-        <v>1053</v>
-      </c>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
+        <v>1048</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>1049</v>
+      </c>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
       <c r="I6" s="10"/>
       <c r="J6" s="10"/>
       <c r="K6" s="10"/>
       <c r="L6" s="10"/>
-      <c r="M6" s="15" t="s">
-        <v>1054</v>
+      <c r="M6" s="12" t="s">
+        <v>1050</v>
       </c>
       <c r="N6" s="10"/>
       <c r="O6" s="10"/>
@@ -13781,17 +14113,17 @@
     </row>
     <row r="7" spans="1:16">
       <c r="A7" s="10" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
       <c r="C7" s="10"/>
       <c r="D7" s="10" t="s">
-        <v>1056</v>
+        <v>1052</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>1057</v>
+        <v>1053</v>
       </c>
       <c r="F7" s="10"/>
       <c r="G7" s="10"/>
@@ -13801,27 +14133,27 @@
       <c r="K7" s="10"/>
       <c r="L7" s="10"/>
       <c r="M7" s="10" t="s">
-        <v>1058</v>
+        <v>1054</v>
       </c>
       <c r="N7" s="4" t="s">
-        <v>1059</v>
-      </c>
-      <c r="O7" s="16"/>
-      <c r="P7" s="16"/>
+        <v>1055</v>
+      </c>
+      <c r="O7" s="13"/>
+      <c r="P7" s="13"/>
     </row>
     <row r="8" spans="1:16">
       <c r="A8" s="10" t="s">
-        <v>1060</v>
+        <v>1056</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>1061</v>
+        <v>1057</v>
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="10" t="s">
-        <v>1062</v>
+        <v>1058</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>1057</v>
+        <v>1053</v>
       </c>
       <c r="F8" s="10"/>
       <c r="G8" s="10"/>
@@ -13831,27 +14163,27 @@
       <c r="K8" s="10"/>
       <c r="L8" s="10"/>
       <c r="M8" s="10" t="s">
-        <v>1063</v>
+        <v>1059</v>
       </c>
       <c r="N8" s="10" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="O8" s="10"/>
       <c r="P8" s="10"/>
     </row>
     <row r="9" spans="1:16">
       <c r="A9" s="10" t="s">
-        <v>1065</v>
+        <v>1061</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>1066</v>
+        <v>1062</v>
       </c>
       <c r="C9" s="10"/>
       <c r="D9" s="10" t="s">
-        <v>1067</v>
+        <v>1063</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>1068</v>
+        <v>1064</v>
       </c>
       <c r="F9" s="10"/>
       <c r="G9" s="10"/>
@@ -13861,37 +14193,37 @@
       <c r="K9" s="10"/>
       <c r="L9" s="10"/>
       <c r="M9" s="10" t="s">
-        <v>1069</v>
+        <v>1065</v>
       </c>
       <c r="N9" s="10" t="s">
-        <v>1070</v>
+        <v>1066</v>
       </c>
       <c r="O9" s="10"/>
       <c r="P9" s="10"/>
     </row>
     <row r="10" spans="1:16">
       <c r="A10" s="10" t="s">
-        <v>1151</v>
+        <v>1082</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>1152</v>
+        <v>1083</v>
       </c>
       <c r="C10" s="10"/>
       <c r="D10" s="10" t="s">
-        <v>1153</v>
+        <v>1084</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>1035</v>
+        <v>1032</v>
       </c>
       <c r="F10" s="10"/>
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
       <c r="I10" s="10"/>
       <c r="J10" s="10"/>
-      <c r="K10" s="17"/>
+      <c r="K10" s="14"/>
       <c r="L10" s="10"/>
       <c r="M10" s="10" t="s">
-        <v>1154</v>
+        <v>1085</v>
       </c>
       <c r="N10" s="10"/>
       <c r="O10" s="10"/>
@@ -13899,29 +14231,29 @@
     </row>
     <row r="11" spans="1:16">
       <c r="A11" s="10" t="s">
-        <v>1155</v>
+        <v>1086</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>1156</v>
+        <v>1087</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>1157</v>
+        <v>1088</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>1158</v>
+        <v>1089</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>1035</v>
+        <v>1032</v>
       </c>
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
       <c r="I11" s="10"/>
       <c r="J11" s="10"/>
-      <c r="K11" s="17"/>
+      <c r="K11" s="14"/>
       <c r="L11" s="10"/>
       <c r="M11" s="10" t="s">
-        <v>1159</v>
+        <v>1090</v>
       </c>
       <c r="N11" s="10"/>
       <c r="O11" s="10"/>
@@ -13929,29 +14261,29 @@
     </row>
     <row r="12" spans="1:16">
       <c r="A12" s="10" t="s">
-        <v>1160</v>
+        <v>1091</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>1161</v>
+        <v>1092</v>
       </c>
       <c r="C12" s="10" t="s">
         <v>13</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>1162</v>
+        <v>1093</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>1035</v>
+        <v>1032</v>
       </c>
       <c r="F12" s="10"/>
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
       <c r="I12" s="10"/>
       <c r="J12" s="10"/>
-      <c r="K12" s="17"/>
+      <c r="K12" s="14"/>
       <c r="L12" s="10"/>
       <c r="M12" s="10" t="s">
-        <v>1163</v>
+        <v>1094</v>
       </c>
       <c r="N12" s="10"/>
       <c r="O12" s="10"/>
@@ -13959,24 +14291,24 @@
     </row>
     <row r="13" spans="1:16" ht="16">
       <c r="A13" s="10" t="s">
-        <v>1164</v>
-      </c>
-      <c r="B13" s="18" t="s">
-        <v>1165</v>
+        <v>1095</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>1096</v>
       </c>
       <c r="C13" s="10"/>
-      <c r="D13" s="18" t="s">
-        <v>1166</v>
-      </c>
-      <c r="E13" s="18" t="s">
-        <v>1035</v>
-      </c>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
+      <c r="D13" s="15" t="s">
+        <v>1097</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>1032</v>
+      </c>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
       <c r="H13" s="10"/>
       <c r="I13" s="10"/>
       <c r="J13" s="10"/>
-      <c r="K13" s="17"/>
+      <c r="K13" s="14"/>
       <c r="L13" s="10"/>
       <c r="M13" s="10"/>
       <c r="N13" s="10"/>
@@ -13985,24 +14317,24 @@
     </row>
     <row r="14" spans="1:16" ht="16">
       <c r="A14" s="10" t="s">
-        <v>1167</v>
-      </c>
-      <c r="B14" s="18" t="s">
-        <v>1168</v>
+        <v>1098</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>1099</v>
       </c>
       <c r="C14" s="10"/>
-      <c r="D14" s="18" t="s">
-        <v>1169</v>
-      </c>
-      <c r="E14" s="18" t="s">
-        <v>1035</v>
-      </c>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
+      <c r="D14" s="15" t="s">
+        <v>1100</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>1032</v>
+      </c>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
       <c r="H14" s="10"/>
       <c r="I14" s="10"/>
       <c r="J14" s="10"/>
-      <c r="K14" s="17"/>
+      <c r="K14" s="14"/>
       <c r="L14" s="10"/>
       <c r="M14" s="10"/>
       <c r="N14" s="10"/>
@@ -14011,24 +14343,24 @@
     </row>
     <row r="15" spans="1:16" ht="16">
       <c r="A15" s="10" t="s">
-        <v>1170</v>
-      </c>
-      <c r="B15" s="18" t="s">
-        <v>1171</v>
+        <v>1101</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>1102</v>
       </c>
       <c r="C15" s="10"/>
-      <c r="D15" s="18" t="s">
-        <v>1048</v>
-      </c>
-      <c r="E15" s="18" t="s">
-        <v>1035</v>
-      </c>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
+      <c r="D15" s="15" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>1032</v>
+      </c>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
       <c r="H15" s="10"/>
       <c r="I15" s="10"/>
       <c r="J15" s="10"/>
-      <c r="K15" s="17"/>
+      <c r="K15" s="14"/>
       <c r="L15" s="10"/>
       <c r="M15" s="10"/>
       <c r="N15" s="10"/>
@@ -14037,36 +14369,58 @@
     </row>
     <row r="16" spans="1:16" ht="16">
       <c r="A16" s="10" t="s">
-        <v>1172</v>
-      </c>
-      <c r="B16" s="18" t="s">
-        <v>1173</v>
+        <v>1103</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>1104</v>
       </c>
       <c r="C16" s="10"/>
-      <c r="D16" s="18" t="s">
-        <v>1174</v>
-      </c>
-      <c r="E16" s="18" t="s">
-        <v>1175</v>
-      </c>
-      <c r="F16" s="18"/>
+      <c r="D16" s="15" t="s">
+        <v>1105</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>1106</v>
+      </c>
+      <c r="F16" s="15"/>
       <c r="G16" s="10"/>
       <c r="H16" s="10"/>
       <c r="I16" s="10"/>
       <c r="J16" s="10"/>
-      <c r="K16" s="17"/>
+      <c r="K16" s="14"/>
       <c r="L16" s="10"/>
       <c r="M16" s="10"/>
       <c r="N16" s="10"/>
       <c r="O16" s="10"/>
       <c r="P16" s="10"/>
     </row>
+    <row r="17" spans="1:14" ht="96">
+      <c r="A17" s="10" t="s">
+        <v>1181</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>1182</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>1183</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>1184</v>
+      </c>
+      <c r="M17" s="4" t="s">
+        <v>1185</v>
+      </c>
+      <c r="N17" s="22" t="s">
+        <v>1186</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="N7" r:id="rId1" xr:uid="{94A6757E-AD30-BC4A-89EC-B34B6820E56B}"/>
+    <hyperlink ref="M17" r:id="rId2" xr:uid="{DA3D33FA-8291-A841-A258-F206851CE4E6}"/>
+    <hyperlink ref="N17" r:id="rId3" xr:uid="{9B852E50-0241-9F48-8E76-A3FB0398698D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId4"/>
 </worksheet>
 </file>
 
